--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3542c794b81406ef/Documents/GitHub/GL_Adal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F46BC141-4AC9-4A2E-9EB2-DF4DD8C392E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8DA283D-7399-41AA-AD62-FAACD7EE6675}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{F46BC141-4AC9-4A2E-9EB2-DF4DD8C392E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6ED8C80-91E0-4C11-968F-63CA13574B8E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{371671BA-FB2C-466E-9F9E-9FC54DD74A6A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -188,7 +188,22 @@
     <t>8.3-Trouver les textures</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Romain</t>
+  </si>
+  <si>
+    <t>Nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas </t>
   </si>
 </sst>
 </file>
@@ -564,7 +579,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,12 +613,18 @@
         <v>40</v>
       </c>
       <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" t="s">
         <v>41</v>
@@ -643,6 +664,9 @@
         <v>30</v>
       </c>
       <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -670,6 +694,9 @@
         <v>13</v>
       </c>
       <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -691,8 +718,8 @@
         <v>16</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="E14" t="s">
-        <v>51</v>
+      <c r="D14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -713,7 +740,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -722,13 +749,16 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -737,7 +767,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -746,19 +776,19 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -767,7 +797,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -776,13 +806,13 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -791,13 +821,16 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -806,25 +839,25 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
